--- a/avances procesos.xlsx
+++ b/avances procesos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>AREA</t>
   </si>
@@ -60,23 +60,22 @@
   </si>
   <si>
     <t>creacion de usuarios y manejo de permisos</t>
+  </si>
+  <si>
+    <t>calcular pago nomina</t>
+  </si>
+  <si>
+    <t>calcular pago por empleado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,18 +96,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -118,6 +126,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,24 +193,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Celda de comprobación" xfId="3" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+  <cellStyles count="5">
+    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="2" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F324-A0AD-433B-9C54-48F77E42263B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,61 +550,83 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/avances procesos.xlsx
+++ b/avances procesos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>AREA</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>calcular pago por empleado</t>
+  </si>
+  <si>
+    <t>avances</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,6 +195,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -200,13 +216,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -525,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D32F324-A0AD-433B-9C54-48F77E42263B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,19 +622,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -626,7 +644,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/avances procesos.xlsx
+++ b/avances procesos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>AREA</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>avances</t>
+  </si>
+  <si>
+    <t>TERMINADO</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2"/>
@@ -225,6 +228,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
@@ -546,7 +550,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A7:C7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,14 +583,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -601,13 +605,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
